--- a/Benchmark/static-result.xlsx
+++ b/Benchmark/static-result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cabdf30199810cd7/home/DynaJson/gitrepo/Benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="509" documentId="13_ncr:40009_{242D0B94-D1A8-439D-A372-25C356D2463D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B96D14F2-1817-42AB-A42C-1F4B51D9C26E}"/>
+  <xr:revisionPtr revIDLastSave="681" documentId="13_ncr:40009_{242D0B94-D1A8-439D-A372-25C356D2463D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2A868B6A-2909-4121-882C-951ED3DA95F7}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27825" yWindow="45" windowWidth="18525" windowHeight="13935" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmark.BenchmarkDotNet.Stati" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId7"/>
-    <pivotCache cacheId="4" r:id="rId8"/>
+    <pivotCache cacheId="32" r:id="rId7"/>
+    <pivotCache cacheId="36" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -276,595 +276,595 @@
     <t>.NET Core 3.1</t>
   </si>
   <si>
-    <t>7,147.8 ns</t>
-  </si>
-  <si>
-    <t>59.84 ns</t>
-  </si>
-  <si>
-    <t>307.04 ns</t>
-  </si>
-  <si>
-    <t>7,029.5 ns</t>
-  </si>
-  <si>
-    <t>16585 B</t>
-  </si>
-  <si>
-    <t>7,669.8 ns</t>
-  </si>
-  <si>
-    <t>85.10 ns</t>
-  </si>
-  <si>
-    <t>443.51 ns</t>
-  </si>
-  <si>
-    <t>7,585.8 ns</t>
-  </si>
-  <si>
-    <t>15544 B</t>
-  </si>
-  <si>
-    <t>7,529.3 ns</t>
-  </si>
-  <si>
-    <t>69.38 ns</t>
-  </si>
-  <si>
-    <t>361.59 ns</t>
-  </si>
-  <si>
-    <t>7,577.0 ns</t>
-  </si>
-  <si>
-    <t>16561 B</t>
-  </si>
-  <si>
-    <t>7,906.8 ns</t>
-  </si>
-  <si>
-    <t>61.84 ns</t>
-  </si>
-  <si>
-    <t>321.21 ns</t>
-  </si>
-  <si>
-    <t>7,943.3 ns</t>
-  </si>
-  <si>
-    <t>15800 B</t>
-  </si>
-  <si>
-    <t>4,137.5 ns</t>
-  </si>
-  <si>
-    <t>36.00 ns</t>
-  </si>
-  <si>
-    <t>186.98 ns</t>
-  </si>
-  <si>
-    <t>4,134.0 ns</t>
-  </si>
-  <si>
-    <t>12560 B</t>
-  </si>
-  <si>
-    <t>4,224.2 ns</t>
-  </si>
-  <si>
-    <t>41.33 ns</t>
-  </si>
-  <si>
-    <t>212.46 ns</t>
-  </si>
-  <si>
-    <t>4,220.8 ns</t>
-  </si>
-  <si>
-    <t>12040 B</t>
-  </si>
-  <si>
-    <t>1,331.5 ns</t>
-  </si>
-  <si>
-    <t>19.53 ns</t>
-  </si>
-  <si>
-    <t>100.42 ns</t>
-  </si>
-  <si>
-    <t>1,323.5 ns</t>
-  </si>
-  <si>
-    <t>9320 B</t>
-  </si>
-  <si>
-    <t>1,250.1 ns</t>
-  </si>
-  <si>
-    <t>14.14 ns</t>
-  </si>
-  <si>
-    <t>71.52 ns</t>
-  </si>
-  <si>
-    <t>1,260.6 ns</t>
-  </si>
-  <si>
-    <t>9088 B</t>
-  </si>
-  <si>
-    <t>43,570.5 ns</t>
-  </si>
-  <si>
-    <t>142.65 ns</t>
-  </si>
-  <si>
-    <t>742.20 ns</t>
-  </si>
-  <si>
-    <t>43,579.4 ns</t>
-  </si>
-  <si>
     <t>19897 B</t>
-  </si>
-  <si>
-    <t>76,954.4 ns</t>
-  </si>
-  <si>
-    <t>277.77 ns</t>
-  </si>
-  <si>
-    <t>1,440.28 ns</t>
-  </si>
-  <si>
-    <t>76,670.2 ns</t>
   </si>
   <si>
     <t>24843 B</t>
   </si>
   <si>
-    <t>43,700.2 ns</t>
-  </si>
-  <si>
-    <t>228.47 ns</t>
-  </si>
-  <si>
-    <t>1,186.69 ns</t>
-  </si>
-  <si>
-    <t>43,621.2 ns</t>
-  </si>
-  <si>
     <t>19889 B</t>
-  </si>
-  <si>
-    <t>78,204.1 ns</t>
-  </si>
-  <si>
-    <t>639.26 ns</t>
-  </si>
-  <si>
-    <t>3,303.22 ns</t>
-  </si>
-  <si>
-    <t>77,197.2 ns</t>
   </si>
   <si>
     <t>24931 B</t>
   </si>
   <si>
-    <t>22,587.4 ns</t>
-  </si>
-  <si>
-    <t>359.29 ns</t>
-  </si>
-  <si>
-    <t>1,872.54 ns</t>
-  </si>
-  <si>
-    <t>21,623.1 ns</t>
-  </si>
-  <si>
     <t>9833 B</t>
-  </si>
-  <si>
-    <t>40,695.9 ns</t>
-  </si>
-  <si>
-    <t>89.22 ns</t>
-  </si>
-  <si>
-    <t>461.02 ns</t>
-  </si>
-  <si>
-    <t>40,676.9 ns</t>
   </si>
   <si>
     <t>15206 B</t>
   </si>
   <si>
-    <t>4,967.8 ns</t>
-  </si>
-  <si>
-    <t>23.51 ns</t>
-  </si>
-  <si>
-    <t>122.52 ns</t>
-  </si>
-  <si>
-    <t>4,968.1 ns</t>
-  </si>
-  <si>
     <t>3672 B</t>
-  </si>
-  <si>
-    <t>11,404.4 ns</t>
-  </si>
-  <si>
-    <t>37.63 ns</t>
-  </si>
-  <si>
-    <t>195.76 ns</t>
-  </si>
-  <si>
-    <t>11,419.1 ns</t>
   </si>
   <si>
     <t>7209 B</t>
   </si>
   <si>
-    <t>6,042.4 ns</t>
-  </si>
-  <si>
-    <t>20.31 ns</t>
-  </si>
-  <si>
-    <t>105.84 ns</t>
-  </si>
-  <si>
-    <t>6,043.8 ns</t>
-  </si>
-  <si>
     <t>4392 B</t>
-  </si>
-  <si>
-    <t>8,985.7 ns</t>
-  </si>
-  <si>
-    <t>16.98 ns</t>
-  </si>
-  <si>
-    <t>87.59 ns</t>
-  </si>
-  <si>
-    <t>8,984.3 ns</t>
   </si>
   <si>
     <t>2120 B</t>
   </si>
   <si>
-    <t>6,882.4 ns</t>
-  </si>
-  <si>
-    <t>20.36 ns</t>
-  </si>
-  <si>
-    <t>105.00 ns</t>
-  </si>
-  <si>
-    <t>6,853.8 ns</t>
-  </si>
-  <si>
     <t>4360 B</t>
-  </si>
-  <si>
-    <t>7,593.1 ns</t>
-  </si>
-  <si>
-    <t>13.04 ns</t>
-  </si>
-  <si>
-    <t>67.01 ns</t>
-  </si>
-  <si>
-    <t>7,591.7 ns</t>
   </si>
   <si>
     <t>1992 B</t>
   </si>
   <si>
-    <t>2,663.2 ns</t>
-  </si>
-  <si>
-    <t>8.42 ns</t>
-  </si>
-  <si>
-    <t>43.20 ns</t>
-  </si>
-  <si>
-    <t>2,666.1 ns</t>
-  </si>
-  <si>
     <t>2360 B</t>
-  </si>
-  <si>
-    <t>3,988.7 ns</t>
-  </si>
-  <si>
-    <t>9.12 ns</t>
-  </si>
-  <si>
-    <t>47.19 ns</t>
-  </si>
-  <si>
-    <t>3,992.7 ns</t>
   </si>
   <si>
     <t>1392 B</t>
   </si>
   <si>
-    <t>683.8 ns</t>
-  </si>
-  <si>
-    <t>2.27 ns</t>
-  </si>
-  <si>
-    <t>11.66 ns</t>
-  </si>
-  <si>
-    <t>684.4 ns</t>
-  </si>
-  <si>
-    <t>899.1 ns</t>
-  </si>
-  <si>
-    <t>2.58 ns</t>
-  </si>
-  <si>
-    <t>13.34 ns</t>
-  </si>
-  <si>
-    <t>900.9 ns</t>
-  </si>
-  <si>
     <t>256 B</t>
-  </si>
-  <si>
-    <t>11,421.5 ns</t>
-  </si>
-  <si>
-    <t>35.90 ns</t>
-  </si>
-  <si>
-    <t>186.16 ns</t>
-  </si>
-  <si>
-    <t>11,402.7 ns</t>
   </si>
   <si>
     <t>5376 B</t>
   </si>
   <si>
-    <t>20,595.4 ns</t>
-  </si>
-  <si>
-    <t>106.63 ns</t>
-  </si>
-  <si>
-    <t>553.86 ns</t>
-  </si>
-  <si>
-    <t>20,541.6 ns</t>
-  </si>
-  <si>
-    <t>12,096.3 ns</t>
-  </si>
-  <si>
-    <t>43.37 ns</t>
-  </si>
-  <si>
-    <t>226.04 ns</t>
-  </si>
-  <si>
-    <t>12,082.7 ns</t>
-  </si>
-  <si>
     <t>5352 B</t>
-  </si>
-  <si>
-    <t>18,028.8 ns</t>
-  </si>
-  <si>
-    <t>66.36 ns</t>
-  </si>
-  <si>
-    <t>344.69 ns</t>
-  </si>
-  <si>
-    <t>17,942.2 ns</t>
   </si>
   <si>
     <t>7184 B</t>
   </si>
   <si>
-    <t>5,365.7 ns</t>
-  </si>
-  <si>
-    <t>14.79 ns</t>
-  </si>
-  <si>
-    <t>76.67 ns</t>
-  </si>
-  <si>
-    <t>5,351.2 ns</t>
-  </si>
-  <si>
     <t>2408 B</t>
-  </si>
-  <si>
-    <t>10,100.7 ns</t>
-  </si>
-  <si>
-    <t>66.04 ns</t>
-  </si>
-  <si>
-    <t>343.58 ns</t>
-  </si>
-  <si>
-    <t>10,110.1 ns</t>
   </si>
   <si>
     <t>3648 B</t>
   </si>
   <si>
-    <t>1,337.8 ns</t>
-  </si>
-  <si>
-    <t>5.30 ns</t>
-  </si>
-  <si>
-    <t>27.01 ns</t>
-  </si>
-  <si>
-    <t>1,337.3 ns</t>
-  </si>
-  <si>
     <t>1536 B</t>
-  </si>
-  <si>
-    <t>2,825.0 ns</t>
-  </si>
-  <si>
-    <t>22.51 ns</t>
-  </si>
-  <si>
-    <t>117.34 ns</t>
-  </si>
-  <si>
-    <t>2,849.7 ns</t>
   </si>
   <si>
     <t>4864 B</t>
   </si>
   <si>
-    <t>4,552.3 ns</t>
-  </si>
-  <si>
-    <t>8.75 ns</t>
-  </si>
-  <si>
-    <t>45.30 ns</t>
-  </si>
-  <si>
-    <t>4,551.4 ns</t>
-  </si>
-  <si>
     <t>1112 B</t>
-  </si>
-  <si>
-    <t>7,862.6 ns</t>
-  </si>
-  <si>
-    <t>13.09 ns</t>
-  </si>
-  <si>
-    <t>67.99 ns</t>
-  </si>
-  <si>
-    <t>7,868.2 ns</t>
   </si>
   <si>
     <t>1736 B</t>
   </si>
   <si>
-    <t>4,911.1 ns</t>
-  </si>
-  <si>
-    <t>12.09 ns</t>
-  </si>
-  <si>
-    <t>62.93 ns</t>
-  </si>
-  <si>
-    <t>4,910.2 ns</t>
-  </si>
-  <si>
     <t>1168 B</t>
-  </si>
-  <si>
-    <t>7,705.9 ns</t>
-  </si>
-  <si>
-    <t>10.43 ns</t>
-  </si>
-  <si>
-    <t>53.62 ns</t>
-  </si>
-  <si>
-    <t>7,706.8 ns</t>
   </si>
   <si>
     <t>1952 B</t>
   </si>
   <si>
-    <t>2,081.4 ns</t>
-  </si>
-  <si>
-    <t>2.69 ns</t>
-  </si>
-  <si>
-    <t>13.87 ns</t>
-  </si>
-  <si>
-    <t>2,083.6 ns</t>
-  </si>
-  <si>
     <t>520 B</t>
-  </si>
-  <si>
-    <t>3,449.4 ns</t>
-  </si>
-  <si>
-    <t>5.72 ns</t>
-  </si>
-  <si>
-    <t>29.82 ns</t>
-  </si>
-  <si>
-    <t>3,447.4 ns</t>
   </si>
   <si>
     <t>776 B</t>
   </si>
   <si>
-    <t>530.6 ns</t>
-  </si>
-  <si>
-    <t>1.08 ns</t>
-  </si>
-  <si>
-    <t>5.57 ns</t>
-  </si>
-  <si>
     <t>531.7 ns</t>
   </si>
   <si>
-    <t>800.6 ns</t>
+    <t>192 B</t>
   </si>
   <si>
-    <t>1.38 ns</t>
+    <t>6,523.1 ns</t>
   </si>
   <si>
-    <t>7.18 ns</t>
+    <t>22.13 ns</t>
   </si>
   <si>
-    <t>800.3 ns</t>
+    <t>114.73 ns</t>
   </si>
   <si>
-    <t>192 B</t>
+    <t>6,513.5 ns</t>
+  </si>
+  <si>
+    <t>8592 B</t>
+  </si>
+  <si>
+    <t>6,672.3 ns</t>
+  </si>
+  <si>
+    <t>33.36 ns</t>
+  </si>
+  <si>
+    <t>172.36 ns</t>
+  </si>
+  <si>
+    <t>6,648.0 ns</t>
+  </si>
+  <si>
+    <t>6424 B</t>
+  </si>
+  <si>
+    <t>6,497.5 ns</t>
+  </si>
+  <si>
+    <t>24.39 ns</t>
+  </si>
+  <si>
+    <t>126.66 ns</t>
+  </si>
+  <si>
+    <t>6,503.4 ns</t>
+  </si>
+  <si>
+    <t>8552 B</t>
+  </si>
+  <si>
+    <t>6,466.9 ns</t>
+  </si>
+  <si>
+    <t>19.49 ns</t>
+  </si>
+  <si>
+    <t>100.37 ns</t>
+  </si>
+  <si>
+    <t>6,453.7 ns</t>
+  </si>
+  <si>
+    <t>6648 B</t>
+  </si>
+  <si>
+    <t>3,184.7 ns</t>
+  </si>
+  <si>
+    <t>15.20 ns</t>
+  </si>
+  <si>
+    <t>78.93 ns</t>
+  </si>
+  <si>
+    <t>3,176.6 ns</t>
+  </si>
+  <si>
+    <t>4096 B</t>
+  </si>
+  <si>
+    <t>3,323.3 ns</t>
+  </si>
+  <si>
+    <t>11.35 ns</t>
+  </si>
+  <si>
+    <t>57.91 ns</t>
+  </si>
+  <si>
+    <t>3,316.2 ns</t>
+  </si>
+  <si>
+    <t>3456 B</t>
+  </si>
+  <si>
+    <t>821.6 ns</t>
+  </si>
+  <si>
+    <t>3.66 ns</t>
+  </si>
+  <si>
+    <t>19.05 ns</t>
+  </si>
+  <si>
+    <t>821.5 ns</t>
+  </si>
+  <si>
+    <t>1240 B</t>
+  </si>
+  <si>
+    <t>789.8 ns</t>
+  </si>
+  <si>
+    <t>4.52 ns</t>
+  </si>
+  <si>
+    <t>23.56 ns</t>
+  </si>
+  <si>
+    <t>789.2 ns</t>
+  </si>
+  <si>
+    <t>928 B</t>
+  </si>
+  <si>
+    <t>46,273.1 ns</t>
+  </si>
+  <si>
+    <t>667.25 ns</t>
+  </si>
+  <si>
+    <t>3,423.89 ns</t>
+  </si>
+  <si>
+    <t>44,322.0 ns</t>
+  </si>
+  <si>
+    <t>76,527.7 ns</t>
+  </si>
+  <si>
+    <t>248.33 ns</t>
+  </si>
+  <si>
+    <t>1,280.98 ns</t>
+  </si>
+  <si>
+    <t>77,014.5 ns</t>
+  </si>
+  <si>
+    <t>45,231.9 ns</t>
+  </si>
+  <si>
+    <t>87.27 ns</t>
+  </si>
+  <si>
+    <t>448.62 ns</t>
+  </si>
+  <si>
+    <t>45,196.8 ns</t>
+  </si>
+  <si>
+    <t>81,353.8 ns</t>
+  </si>
+  <si>
+    <t>894.42 ns</t>
+  </si>
+  <si>
+    <t>4,581.58 ns</t>
+  </si>
+  <si>
+    <t>80,931.1 ns</t>
+  </si>
+  <si>
+    <t>22,120.3 ns</t>
+  </si>
+  <si>
+    <t>161.50 ns</t>
+  </si>
+  <si>
+    <t>834.50 ns</t>
+  </si>
+  <si>
+    <t>22,354.2 ns</t>
+  </si>
+  <si>
+    <t>40,601.2 ns</t>
+  </si>
+  <si>
+    <t>75.16 ns</t>
+  </si>
+  <si>
+    <t>385.02 ns</t>
+  </si>
+  <si>
+    <t>40,643.8 ns</t>
+  </si>
+  <si>
+    <t>4,951.7 ns</t>
+  </si>
+  <si>
+    <t>16.37 ns</t>
+  </si>
+  <si>
+    <t>84.30 ns</t>
+  </si>
+  <si>
+    <t>4,953.3 ns</t>
+  </si>
+  <si>
+    <t>11,805.7 ns</t>
+  </si>
+  <si>
+    <t>54.63 ns</t>
+  </si>
+  <si>
+    <t>282.75 ns</t>
+  </si>
+  <si>
+    <t>11,786.4 ns</t>
+  </si>
+  <si>
+    <t>6,179.4 ns</t>
+  </si>
+  <si>
+    <t>14.55 ns</t>
+  </si>
+  <si>
+    <t>74.38 ns</t>
+  </si>
+  <si>
+    <t>6,185.9 ns</t>
+  </si>
+  <si>
+    <t>9,168.8 ns</t>
+  </si>
+  <si>
+    <t>33.97 ns</t>
+  </si>
+  <si>
+    <t>165.86 ns</t>
+  </si>
+  <si>
+    <t>9,259.8 ns</t>
+  </si>
+  <si>
+    <t>6,862.8 ns</t>
+  </si>
+  <si>
+    <t>19.76 ns</t>
+  </si>
+  <si>
+    <t>102.10 ns</t>
+  </si>
+  <si>
+    <t>6,858.9 ns</t>
+  </si>
+  <si>
+    <t>7,675.0 ns</t>
+  </si>
+  <si>
+    <t>16.16 ns</t>
+  </si>
+  <si>
+    <t>78.75 ns</t>
+  </si>
+  <si>
+    <t>7,669.5 ns</t>
+  </si>
+  <si>
+    <t>2,741.5 ns</t>
+  </si>
+  <si>
+    <t>6.77 ns</t>
+  </si>
+  <si>
+    <t>35.03 ns</t>
+  </si>
+  <si>
+    <t>2,745.9 ns</t>
+  </si>
+  <si>
+    <t>4,072.6 ns</t>
+  </si>
+  <si>
+    <t>8.67 ns</t>
+  </si>
+  <si>
+    <t>42.83 ns</t>
+  </si>
+  <si>
+    <t>4,053.9 ns</t>
+  </si>
+  <si>
+    <t>732.0 ns</t>
+  </si>
+  <si>
+    <t>1.24 ns</t>
+  </si>
+  <si>
+    <t>6.41 ns</t>
+  </si>
+  <si>
+    <t>732.6 ns</t>
+  </si>
+  <si>
+    <t>903.8 ns</t>
+  </si>
+  <si>
+    <t>1.64 ns</t>
+  </si>
+  <si>
+    <t>8.21 ns</t>
+  </si>
+  <si>
+    <t>900.4 ns</t>
+  </si>
+  <si>
+    <t>11,780.9 ns</t>
+  </si>
+  <si>
+    <t>27.12 ns</t>
+  </si>
+  <si>
+    <t>138.91 ns</t>
+  </si>
+  <si>
+    <t>11,738.6 ns</t>
+  </si>
+  <si>
+    <t>20,549.3 ns</t>
+  </si>
+  <si>
+    <t>23.75 ns</t>
+  </si>
+  <si>
+    <t>121.89 ns</t>
+  </si>
+  <si>
+    <t>20,563.3 ns</t>
+  </si>
+  <si>
+    <t>12,400.4 ns</t>
+  </si>
+  <si>
+    <t>22.30 ns</t>
+  </si>
+  <si>
+    <t>113.84 ns</t>
+  </si>
+  <si>
+    <t>12,394.7 ns</t>
+  </si>
+  <si>
+    <t>18,678.3 ns</t>
+  </si>
+  <si>
+    <t>83.54 ns</t>
+  </si>
+  <si>
+    <t>428.66 ns</t>
+  </si>
+  <si>
+    <t>18,681.1 ns</t>
+  </si>
+  <si>
+    <t>5,500.4 ns</t>
+  </si>
+  <si>
+    <t>9.80 ns</t>
+  </si>
+  <si>
+    <t>50.47 ns</t>
+  </si>
+  <si>
+    <t>5,497.7 ns</t>
+  </si>
+  <si>
+    <t>10,256.2 ns</t>
+  </si>
+  <si>
+    <t>34.32 ns</t>
+  </si>
+  <si>
+    <t>173.93 ns</t>
+  </si>
+  <si>
+    <t>10,230.3 ns</t>
+  </si>
+  <si>
+    <t>1,374.2 ns</t>
+  </si>
+  <si>
+    <t>4.51 ns</t>
+  </si>
+  <si>
+    <t>23.20 ns</t>
+  </si>
+  <si>
+    <t>1,370.6 ns</t>
+  </si>
+  <si>
+    <t>2,828.9 ns</t>
+  </si>
+  <si>
+    <t>17.07 ns</t>
+  </si>
+  <si>
+    <t>88.96 ns</t>
+  </si>
+  <si>
+    <t>2,818.7 ns</t>
+  </si>
+  <si>
+    <t>4,603.0 ns</t>
+  </si>
+  <si>
+    <t>7.52 ns</t>
+  </si>
+  <si>
+    <t>37.29 ns</t>
+  </si>
+  <si>
+    <t>4,607.3 ns</t>
+  </si>
+  <si>
+    <t>7,823.6 ns</t>
+  </si>
+  <si>
+    <t>5.20 ns</t>
+  </si>
+  <si>
+    <t>25.32 ns</t>
+  </si>
+  <si>
+    <t>7,817.9 ns</t>
+  </si>
+  <si>
+    <t>4,945.9 ns</t>
+  </si>
+  <si>
+    <t>4.66 ns</t>
+  </si>
+  <si>
+    <t>22.98 ns</t>
+  </si>
+  <si>
+    <t>4,941.4 ns</t>
+  </si>
+  <si>
+    <t>7,738.9 ns</t>
+  </si>
+  <si>
+    <t>4.15 ns</t>
+  </si>
+  <si>
+    <t>20.40 ns</t>
+  </si>
+  <si>
+    <t>7,739.8 ns</t>
+  </si>
+  <si>
+    <t>2,078.2 ns</t>
+  </si>
+  <si>
+    <t>1.47 ns</t>
+  </si>
+  <si>
+    <t>7.30 ns</t>
+  </si>
+  <si>
+    <t>2,077.6 ns</t>
+  </si>
+  <si>
+    <t>3,467.3 ns</t>
+  </si>
+  <si>
+    <t>2.41 ns</t>
+  </si>
+  <si>
+    <t>11.84 ns</t>
+  </si>
+  <si>
+    <t>3,462.1 ns</t>
+  </si>
+  <si>
+    <t>532.3 ns</t>
+  </si>
+  <si>
+    <t>0.38 ns</t>
+  </si>
+  <si>
+    <t>1.82 ns</t>
+  </si>
+  <si>
+    <t>796.5 ns</t>
+  </si>
+  <si>
+    <t>1.05 ns</t>
+  </si>
+  <si>
+    <t>5.35 ns</t>
+  </si>
+  <si>
+    <t>795.6 ns</t>
   </si>
 </sst>
 </file>
@@ -10418,9 +10418,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10067699454765386"/>
+          <c:x val="0.11225436907217276"/>
           <c:y val="0.13611296392580541"/>
-          <c:w val="0.88662116003084734"/>
+          <c:w val="0.87504373820132109"/>
           <c:h val="0.75727521845652879"/>
         </c:manualLayout>
       </c:layout>
@@ -10555,13 +10555,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1331.5</c:v>
+                  <c:v>821.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4137.5</c:v>
+                  <c:v>3184.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7529.3</c:v>
+                  <c:v>6497.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10689,13 +10689,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>530.6</c:v>
+                  <c:v>532.29999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2081.4</c:v>
+                  <c:v>2078.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4911.1000000000004</c:v>
+                  <c:v>4945.8999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10822,13 +10822,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>683.8</c:v>
+                  <c:v>732</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2663.2</c:v>
+                  <c:v>2741.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6882.4</c:v>
+                  <c:v>6862.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10945,13 +10945,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1337.8</c:v>
+                  <c:v>1374.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5365.7</c:v>
+                  <c:v>5500.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12096.3</c:v>
+                  <c:v>12400.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11088,13 +11088,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4967.8</c:v>
+                  <c:v>4951.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22587.4</c:v>
+                  <c:v>22120.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43700.2</c:v>
+                  <c:v>45231.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11301,8 +11301,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10309439528065563"/>
-          <c:y val="0.13875134338024792"/>
+          <c:x val="0.11274223138894905"/>
+          <c:y val="0.13875149327264324"/>
           <c:w val="0.17903166829008954"/>
           <c:h val="0.35902668416447941"/>
         </c:manualLayout>
@@ -11424,7 +11424,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.41768170440344732"/>
-          <c:y val="3.6922930088284421E-2"/>
+          <c:y val="3.6922944184373828E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -19848,6 +19848,7 @@
               <a:endParaRPr lang="ja-JP"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -19912,54 +19913,6 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="162"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="-5.8651017364241753E-3"/>
-              <c:y val="-3.7606415322705476E-17"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="163"/>
@@ -20229,6 +20182,7 @@
               <a:endParaRPr lang="ja-JP"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -20293,54 +20247,6 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="169"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="5.8651017364241753E-3"/>
-              <c:y val="0"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="170"/>
@@ -20388,6 +20294,7 @@
               <a:endParaRPr lang="ja-JP"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -20401,57 +20308,6 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="171"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="-5.8651017364241753E-3"/>
-              <c:y val="-3.7606415322705476E-17"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="172"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent5"/>
@@ -20496,6 +20352,7 @@
               <a:endParaRPr lang="ja-JP"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -20508,58 +20365,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="173"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="5.8651017364241753E-3"/>
-              <c:y val="0"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="174"/>
+        <c:idx val="172"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent3"/>
@@ -20616,7 +20422,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="175"/>
+        <c:idx val="173"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent4"/>
@@ -20673,7 +20479,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="176"/>
+        <c:idx val="174"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent2"/>
@@ -20730,7 +20536,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="177"/>
+        <c:idx val="175"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -20775,6 +20581,7 @@
               <a:endParaRPr lang="ja-JP"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -20787,58 +20594,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="178"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="-5.8651017364241753E-3"/>
-              <c:y val="-3.7606415322705476E-17"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="179"/>
+        <c:idx val="176"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent5"/>
@@ -20883,6 +20639,7 @@
               <a:endParaRPr lang="ja-JP"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -20895,58 +20652,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="180"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="5.8651017364241753E-3"/>
-              <c:y val="0"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="181"/>
+        <c:idx val="177"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent3"/>
@@ -21003,7 +20709,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="182"/>
+        <c:idx val="178"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent4"/>
@@ -21060,7 +20766,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="183"/>
+        <c:idx val="179"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent2"/>
@@ -21117,7 +20823,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="184"/>
+        <c:idx val="180"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -21175,43 +20881,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="185"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="186"/>
+        <c:idx val="181"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent5"/>
@@ -21269,43 +20939,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="187"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="188"/>
+        <c:idx val="182"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent3"/>
@@ -21362,7 +20996,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="189"/>
+        <c:idx val="183"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent4"/>
@@ -21419,7 +21053,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="190"/>
+        <c:idx val="184"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent2"/>
@@ -21482,9 +21116,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10067699454765386"/>
+          <c:x val="0.11225436907217276"/>
           <c:y val="0.13611296392580541"/>
-          <c:w val="0.88662116003084734"/>
+          <c:w val="0.87504373820132109"/>
           <c:h val="0.75727521845652879"/>
         </c:manualLayout>
       </c:layout>
@@ -21522,7 +21156,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-5C71-4B17-B033-3B33D98E7F2F}"/>
+                <c16:uniqueId val="{00000008-5D2B-4307-B767-153DFDF9A67B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21532,7 +21166,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001A-5C71-4B17-B033-3B33D98E7F2F}"/>
+                <c16:uniqueId val="{00000009-5D2B-4307-B767-153DFDF9A67B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21619,20 +21253,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1250.0999999999999</c:v>
+                  <c:v>789.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4224.2</c:v>
+                  <c:v>3323.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7906.8</c:v>
+                  <c:v>6466.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001C-5C71-4B17-B033-3B33D98E7F2F}"/>
+              <c16:uniqueId val="{0000000A-5D2B-4307-B767-153DFDF9A67B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -21666,7 +21300,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001E-5C71-4B17-B033-3B33D98E7F2F}"/>
+                <c16:uniqueId val="{0000000C-5D2B-4307-B767-153DFDF9A67B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21753,20 +21387,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>800.6</c:v>
+                  <c:v>796.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3449.4</c:v>
+                  <c:v>3467.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7705.9</c:v>
+                  <c:v>7738.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000020-5C71-4B17-B033-3B33D98E7F2F}"/>
+              <c16:uniqueId val="{0000000D-5D2B-4307-B767-153DFDF9A67B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -21800,7 +21434,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000022-5C71-4B17-B033-3B33D98E7F2F}"/>
+                <c16:uniqueId val="{0000000F-5D2B-4307-B767-153DFDF9A67B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21886,20 +21520,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>899.1</c:v>
+                  <c:v>903.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3988.7</c:v>
+                  <c:v>4072.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7593.1</c:v>
+                  <c:v>7675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000023-5C71-4B17-B033-3B33D98E7F2F}"/>
+              <c16:uniqueId val="{00000010-5D2B-4307-B767-153DFDF9A67B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -22009,20 +21643,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2825</c:v>
+                  <c:v>2828.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10100.700000000001</c:v>
+                  <c:v>10256.200000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18028.8</c:v>
+                  <c:v>18678.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000025-5C71-4B17-B033-3B33D98E7F2F}"/>
+              <c16:uniqueId val="{00000012-5D2B-4307-B767-153DFDF9A67B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -22056,7 +21690,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-5C71-4B17-B033-3B33D98E7F2F}"/>
+                <c16:uniqueId val="{00000014-5D2B-4307-B767-153DFDF9A67B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22066,7 +21700,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000028-5C71-4B17-B033-3B33D98E7F2F}"/>
+                <c16:uniqueId val="{00000015-5D2B-4307-B767-153DFDF9A67B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22152,20 +21786,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11404.4</c:v>
+                  <c:v>11805.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40695.9</c:v>
+                  <c:v>40601.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78204.100000000006</c:v>
+                  <c:v>81353.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000029-5C71-4B17-B033-3B33D98E7F2F}"/>
+              <c16:uniqueId val="{00000016-5D2B-4307-B767-153DFDF9A67B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -22365,8 +21999,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10309439528065563"/>
-          <c:y val="0.13875134338024792"/>
+          <c:x val="0.11274223138894905"/>
+          <c:y val="0.13875149327264324"/>
           <c:w val="0.17903166829008954"/>
           <c:h val="0.35902668416447941"/>
         </c:manualLayout>
@@ -22483,11 +22117,11 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.90593</cdr:x>
+      <cdr:x>0.90738</cdr:x>
       <cdr:y>0.05455</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.9754</cdr:x>
+      <cdr:x>0.97685</cdr:x>
       <cdr:y>0.14545</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -22503,8 +22137,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5962650" y="142874"/>
-          <a:ext cx="457200" cy="238125"/>
+          <a:off x="5972152" y="156396"/>
+          <a:ext cx="457236" cy="260613"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -22525,11 +22159,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.61119</cdr:x>
+      <cdr:x>0.61843</cdr:x>
       <cdr:y>0.05212</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.68066</cdr:x>
+      <cdr:x>0.6879</cdr:x>
       <cdr:y>0.14303</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -22545,8 +22179,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4022725" y="136525"/>
-          <a:ext cx="457200" cy="238125"/>
+          <a:off x="4070340" y="149429"/>
+          <a:ext cx="457236" cy="260642"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -22673,15 +22307,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
+      <xdr:colOff>752475</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:colOff>1276350</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -22696,7 +22330,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4019550" y="2752725"/>
+          <a:off x="4076700" y="2771775"/>
           <a:ext cx="523875" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22773,7 +22407,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>40696</a:t>
+            <a:t>40601</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900"/>
         </a:p>
@@ -22784,15 +22418,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -22807,7 +22441,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5972175" y="2752725"/>
+          <a:off x="6000750" y="2771775"/>
           <a:ext cx="523875" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22884,7 +22518,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>78204</a:t>
+            <a:t>81354</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900"/>
         </a:p>
@@ -22896,7 +22530,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kazuhiro Fujieda" refreshedDate="44111.816414930552" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20" xr:uid="{05AF461F-2D8D-40C0-AE52-5EF9077278A1}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kazuhiro Fujieda" refreshedDate="44166.904931249999" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20" xr:uid="{05AF461F-2D8D-40C0-AE52-5EF9077278A1}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D21" sheet="Serialize"/>
   </cacheSource>
@@ -22922,7 +22556,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Mean" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="530.6" maxValue="43700.2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="532.29999999999995" maxValue="46273.1"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -22934,7 +22568,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kazuhiro Fujieda" refreshedDate="44111.818545138885" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20" xr:uid="{C3100CD7-8C48-4725-84A4-3E8A64BCF8ED}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kazuhiro Fujieda" refreshedDate="44166.905529629628" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20" xr:uid="{C3100CD7-8C48-4725-84A4-3E8A64BCF8ED}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D21" sheet="Deserialize"/>
   </cacheSource>
@@ -22960,7 +22594,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Mean" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="800.6" maxValue="78204.100000000006"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="789.8" maxValue="81353.8"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -22977,121 +22611,121 @@
     <s v="Serialize"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="7147.8"/>
+    <n v="6523.1"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="7529.3"/>
+    <n v="6497.5"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="4137.5"/>
+    <n v="3184.7"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="1331.5"/>
+    <n v="821.6"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="43570.5"/>
+    <n v="46273.1"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="43700.2"/>
+    <n v="45231.9"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="1"/>
     <x v="2"/>
-    <n v="22587.4"/>
+    <n v="22120.3"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="4967.8"/>
+    <n v="4951.7"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="6042.4"/>
+    <n v="6179.4"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="6882.4"/>
+    <n v="6862.8"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="2"/>
     <x v="2"/>
-    <n v="2663.2"/>
+    <n v="2741.5"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="2"/>
     <x v="3"/>
-    <n v="683.8"/>
+    <n v="732"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="11421.5"/>
+    <n v="11780.9"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="3"/>
     <x v="1"/>
-    <n v="12096.3"/>
+    <n v="12400.4"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="3"/>
     <x v="2"/>
-    <n v="5365.7"/>
+    <n v="5500.4"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="3"/>
     <x v="3"/>
-    <n v="1337.8"/>
+    <n v="1374.2"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="4"/>
     <x v="0"/>
-    <n v="4552.3"/>
+    <n v="4603"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="4"/>
     <x v="1"/>
-    <n v="4911.1000000000004"/>
+    <n v="4945.8999999999996"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="4"/>
     <x v="2"/>
-    <n v="2081.4"/>
+    <n v="2078.1999999999998"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="4"/>
     <x v="3"/>
-    <n v="530.6"/>
+    <n v="532.29999999999995"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -23102,127 +22736,127 @@
     <s v="Deserialize"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="7669.8"/>
+    <n v="6672.3"/>
   </r>
   <r>
     <s v="Deserialize"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="7906.8"/>
+    <n v="6466.9"/>
   </r>
   <r>
     <s v="Deserialize"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="4224.2"/>
+    <n v="3323.3"/>
   </r>
   <r>
     <s v="Deserialize"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="1250.0999999999999"/>
+    <n v="789.8"/>
   </r>
   <r>
     <s v="Deserialize"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="38477.199999999997"/>
+    <n v="38263.85"/>
   </r>
   <r>
     <s v="Deserialize"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="78204.100000000006"/>
+    <n v="81353.8"/>
   </r>
   <r>
     <s v="Deserialize"/>
     <x v="1"/>
     <x v="2"/>
-    <n v="40695.9"/>
+    <n v="40601.199999999997"/>
   </r>
   <r>
     <s v="Deserialize"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="11404.4"/>
+    <n v="11805.7"/>
   </r>
   <r>
     <s v="Deserialize"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="8985.7000000000007"/>
+    <n v="9168.7999999999993"/>
   </r>
   <r>
     <s v="Deserialize"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="7593.1"/>
+    <n v="7675"/>
   </r>
   <r>
     <s v="Deserialize"/>
     <x v="2"/>
     <x v="2"/>
-    <n v="3988.7"/>
+    <n v="4072.6"/>
   </r>
   <r>
     <s v="Deserialize"/>
     <x v="2"/>
     <x v="3"/>
-    <n v="899.1"/>
+    <n v="903.8"/>
   </r>
   <r>
     <s v="Deserialize"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="20595.400000000001"/>
+    <n v="20549.3"/>
   </r>
   <r>
     <s v="Deserialize"/>
     <x v="3"/>
     <x v="1"/>
-    <n v="18028.8"/>
+    <n v="18678.3"/>
   </r>
   <r>
     <s v="Deserialize"/>
     <x v="3"/>
     <x v="2"/>
-    <n v="10100.700000000001"/>
+    <n v="10256.200000000001"/>
   </r>
   <r>
     <s v="Deserialize"/>
     <x v="3"/>
     <x v="3"/>
-    <n v="2825"/>
+    <n v="2828.9"/>
   </r>
   <r>
     <s v="Deserialize"/>
     <x v="4"/>
     <x v="0"/>
-    <n v="7862.6"/>
+    <n v="7823.6"/>
   </r>
   <r>
     <s v="Deserialize"/>
     <x v="4"/>
     <x v="1"/>
-    <n v="7705.9"/>
+    <n v="7738.9"/>
   </r>
   <r>
     <s v="Deserialize"/>
     <x v="4"/>
     <x v="2"/>
-    <n v="3449.4"/>
+    <n v="3467.3"/>
   </r>
   <r>
     <s v="Deserialize"/>
     <x v="4"/>
     <x v="3"/>
-    <n v="800.6"/>
+    <n v="796.5"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8DE53BD2-D3EC-4696-95CC-35A3030F0FE1}" name="ピボットテーブル13" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8DE53BD2-D3EC-4696-95CC-35A3030F0FE1}" name="ピボットテーブル13" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21">
   <location ref="A3:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -23290,7 +22924,7 @@
   <dataFields count="1">
     <dataField name="合計 / Mean" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="10">
+  <chartFormats count="20">
     <chartFormat chart="0" format="160" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -23426,6 +23060,126 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="16" format="170" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="171" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="172" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="173" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="174" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="175" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="176" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="177" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="178" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="179" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -23440,7 +23194,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7150B8FD-EFAC-4327-AF60-9B7381633CC2}" name="ピボットテーブル14" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7150B8FD-EFAC-4327-AF60-9B7381633CC2}" name="ピボットテーブル14" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
   <location ref="A3:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -23508,8 +23262,8 @@
   <dataFields count="1">
     <dataField name="合計 / Mean" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="0" format="184" series="1">
+  <chartFormats count="5">
+    <chartFormat chart="0" format="180" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -23521,22 +23275,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="185">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="186" series="1">
+    <chartFormat chart="0" format="181" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -23548,22 +23287,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="187">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="188" series="1">
+    <chartFormat chart="0" format="182" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -23575,7 +23299,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="189" series="1">
+    <chartFormat chart="0" format="183" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -23587,7 +23311,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="190" series="1">
+    <chartFormat chart="0" format="184" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -23911,7 +23635,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AZ41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -24207,28 +23933,28 @@
         <v>58</v>
       </c>
       <c r="AS2" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AT2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AU2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="AV2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AW2">
-        <v>0.88500000000000001</v>
+        <v>0.45779999999999998</v>
       </c>
       <c r="AX2">
-        <v>1.5299999999999999E-2</v>
+        <v>7.6E-3</v>
       </c>
       <c r="AY2">
         <v>0</v>
       </c>
       <c r="AZ2" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.4">
@@ -24365,28 +24091,28 @@
         <v>58</v>
       </c>
       <c r="AS3" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="AT3" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="AU3" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="AV3" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="AW3">
-        <v>0.82399999999999995</v>
+        <v>0.34329999999999999</v>
       </c>
       <c r="AX3">
-        <v>1.5299999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="AY3">
         <v>0</v>
       </c>
       <c r="AZ3" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.4">
@@ -24523,28 +24249,28 @@
         <v>60</v>
       </c>
       <c r="AS4" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="AT4" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="AU4" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AV4" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AW4">
-        <v>0.88500000000000001</v>
+        <v>0.4501</v>
       </c>
       <c r="AX4">
-        <v>2.29E-2</v>
+        <v>7.6E-3</v>
       </c>
       <c r="AY4">
         <v>0</v>
       </c>
       <c r="AZ4" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.4">
@@ -24681,28 +24407,28 @@
         <v>60</v>
       </c>
       <c r="AS5" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="AT5" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="AU5" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="AV5" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="AW5">
-        <v>0.83919999999999995</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="AX5">
-        <v>1.5299999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="AY5">
         <v>0</v>
       </c>
       <c r="AZ5" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.4">
@@ -24839,28 +24565,28 @@
         <v>61</v>
       </c>
       <c r="AS6" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="AT6" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="AU6" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="AV6" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AW6">
-        <v>0.6714</v>
+        <v>0.21740000000000001</v>
       </c>
       <c r="AX6">
-        <v>7.6E-3</v>
+        <v>0</v>
       </c>
       <c r="AY6">
         <v>0</v>
       </c>
       <c r="AZ6" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.4">
@@ -24997,19 +24723,19 @@
         <v>61</v>
       </c>
       <c r="AS7" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="AT7" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AU7" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="AV7" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="AW7">
-        <v>0.64090000000000003</v>
+        <v>0.18310000000000001</v>
       </c>
       <c r="AX7">
         <v>0</v>
@@ -25018,7 +24744,7 @@
         <v>0</v>
       </c>
       <c r="AZ7" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.4">
@@ -25155,19 +24881,19 @@
         <v>62</v>
       </c>
       <c r="AS8" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="AT8" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="AU8" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="AV8" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AW8">
-        <v>0.49780000000000002</v>
+        <v>6.5799999999999997E-2</v>
       </c>
       <c r="AX8">
         <v>0</v>
@@ -25176,7 +24902,7 @@
         <v>0</v>
       </c>
       <c r="AZ8" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.4">
@@ -25313,19 +25039,19 @@
         <v>62</v>
       </c>
       <c r="AS9" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="AT9" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="AU9" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="AV9" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="AW9">
-        <v>0.4864</v>
+        <v>4.9599999999999998E-2</v>
       </c>
       <c r="AX9">
         <v>0</v>
@@ -25334,7 +25060,7 @@
         <v>0</v>
       </c>
       <c r="AZ9" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.4">
@@ -25471,16 +25197,16 @@
         <v>58</v>
       </c>
       <c r="AS10" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="AT10" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="AU10" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="AV10" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AW10">
         <v>1.0376000000000001</v>
@@ -25492,7 +25218,7 @@
         <v>0</v>
       </c>
       <c r="AZ10" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.4">
@@ -25629,16 +25355,16 @@
         <v>58</v>
       </c>
       <c r="AS11" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="AU11" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="AV11" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="AW11">
         <v>1.2206999999999999</v>
@@ -25650,7 +25376,7 @@
         <v>0</v>
       </c>
       <c r="AZ11" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.4">
@@ -25787,16 +25513,16 @@
         <v>60</v>
       </c>
       <c r="AS12" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="AT12" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="AU12" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="AV12" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="AW12">
         <v>1.0376000000000001</v>
@@ -25808,7 +25534,7 @@
         <v>0</v>
       </c>
       <c r="AZ12" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.4">
@@ -25945,16 +25671,16 @@
         <v>60</v>
       </c>
       <c r="AS13" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="AT13" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="AU13" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="AV13" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="AW13">
         <v>1.2206999999999999</v>
@@ -25966,7 +25692,7 @@
         <v>0</v>
       </c>
       <c r="AZ13" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.4">
@@ -26103,16 +25829,16 @@
         <v>61</v>
       </c>
       <c r="AS14" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="AT14" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="AU14" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="AV14" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="AW14">
         <v>0.51880000000000004</v>
@@ -26124,7 +25850,7 @@
         <v>0</v>
       </c>
       <c r="AZ14" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.4">
@@ -26261,16 +25987,16 @@
         <v>61</v>
       </c>
       <c r="AS15" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="AT15" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="AU15" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="AV15" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="AW15">
         <v>0.79349999999999998</v>
@@ -26282,7 +26008,7 @@
         <v>0</v>
       </c>
       <c r="AZ15" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.4">
@@ -26419,16 +26145,16 @@
         <v>62</v>
       </c>
       <c r="AS16" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="AT16" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="AU16" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="AV16" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="AW16">
         <v>0.19070000000000001</v>
@@ -26440,7 +26166,7 @@
         <v>0</v>
       </c>
       <c r="AZ16" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.4">
@@ -26577,16 +26303,16 @@
         <v>62</v>
       </c>
       <c r="AS17" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="AT17" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="AU17" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="AV17" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="AW17">
         <v>0.38150000000000001</v>
@@ -26598,7 +26324,7 @@
         <v>0</v>
       </c>
       <c r="AZ17" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.4">
@@ -26735,16 +26461,16 @@
         <v>58</v>
       </c>
       <c r="AS18" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="AT18" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="AU18" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="AV18" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="AW18">
         <v>0.22889999999999999</v>
@@ -26756,7 +26482,7 @@
         <v>0</v>
       </c>
       <c r="AZ18" t="s">
-        <v>161</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.4">
@@ -26893,16 +26619,16 @@
         <v>58</v>
       </c>
       <c r="AS19" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="AT19" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="AU19" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="AV19" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="AW19">
         <v>0.10680000000000001</v>
@@ -26914,7 +26640,7 @@
         <v>0</v>
       </c>
       <c r="AZ19" t="s">
-        <v>166</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.4">
@@ -27051,16 +26777,16 @@
         <v>60</v>
       </c>
       <c r="AS20" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="AT20" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="AU20" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="AV20" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AW20">
         <v>0.22889999999999999</v>
@@ -27072,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="AZ20" t="s">
-        <v>171</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.4">
@@ -27209,16 +26935,16 @@
         <v>60</v>
       </c>
       <c r="AS21" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="AT21" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="AU21" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="AV21" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="AW21">
         <v>9.1600000000000001E-2</v>
@@ -27230,7 +26956,7 @@
         <v>0</v>
       </c>
       <c r="AZ21" t="s">
-        <v>176</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.4">
@@ -27367,16 +27093,16 @@
         <v>61</v>
       </c>
       <c r="AS22" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="AT22" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="AU22" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="AV22" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="AW22">
         <v>0.12590000000000001</v>
@@ -27388,7 +27114,7 @@
         <v>0</v>
       </c>
       <c r="AZ22" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.4">
@@ -27525,16 +27251,16 @@
         <v>61</v>
       </c>
       <c r="AS23" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AT23" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AU23" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="AV23" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="AW23">
         <v>6.8699999999999997E-2</v>
@@ -27546,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="AZ23" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.4">
@@ -27683,16 +27409,16 @@
         <v>62</v>
       </c>
       <c r="AS24" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="AT24" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="AU24" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="AV24" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="AW24">
         <v>3.3399999999999999E-2</v>
@@ -27841,16 +27567,16 @@
         <v>62</v>
       </c>
       <c r="AS25" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="AT25" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="AU25" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="AV25" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="AW25">
         <v>1.34E-2</v>
@@ -27862,7 +27588,7 @@
         <v>0</v>
       </c>
       <c r="AZ25" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.4">
@@ -27999,16 +27725,16 @@
         <v>58</v>
       </c>
       <c r="AS26" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="AT26" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="AU26" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="AV26" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="AW26">
         <v>0.2747</v>
@@ -28020,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="AZ26" t="s">
-        <v>200</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.4">
@@ -28157,16 +27883,16 @@
         <v>58</v>
       </c>
       <c r="AS27" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="AT27" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="AU27" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="AV27" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="AW27">
         <v>0.36620000000000003</v>
@@ -28315,16 +28041,16 @@
         <v>60</v>
       </c>
       <c r="AS28" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="AT28" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="AU28" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="AV28" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="AW28">
         <v>0.2747</v>
@@ -28336,7 +28062,7 @@
         <v>0</v>
       </c>
       <c r="AZ28" t="s">
-        <v>209</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.4">
@@ -28473,16 +28199,16 @@
         <v>60</v>
       </c>
       <c r="AS29" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="AT29" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="AU29" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="AV29" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="AW29">
         <v>0.36620000000000003</v>
@@ -28494,7 +28220,7 @@
         <v>0</v>
       </c>
       <c r="AZ29" t="s">
-        <v>214</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.4">
@@ -28631,16 +28357,16 @@
         <v>61</v>
       </c>
       <c r="AS30" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="AT30" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="AU30" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="AV30" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="AW30">
         <v>0.1221</v>
@@ -28652,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="AZ30" t="s">
-        <v>219</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.4">
@@ -28789,16 +28515,16 @@
         <v>61</v>
       </c>
       <c r="AS31" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="AT31" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="AU31" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="AV31" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="AW31">
         <v>0.18310000000000001</v>
@@ -28810,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="AZ31" t="s">
-        <v>224</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.4">
@@ -28947,16 +28673,16 @@
         <v>62</v>
       </c>
       <c r="AS32" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="AT32" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="AU32" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="AV32" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="AW32">
         <v>8.2000000000000003E-2</v>
@@ -28968,7 +28694,7 @@
         <v>0</v>
       </c>
       <c r="AZ32" t="s">
-        <v>229</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.4">
@@ -29105,16 +28831,16 @@
         <v>62</v>
       </c>
       <c r="AS33" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="AT33" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="AU33" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="AV33" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="AW33">
         <v>0.25940000000000002</v>
@@ -29126,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="AZ33" t="s">
-        <v>234</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.4">
@@ -29263,16 +28989,16 @@
         <v>58</v>
       </c>
       <c r="AS34" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="AT34" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="AU34" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="AV34" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="AW34">
         <v>5.3400000000000003E-2</v>
@@ -29284,7 +29010,7 @@
         <v>0</v>
       </c>
       <c r="AZ34" t="s">
-        <v>239</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.4">
@@ -29421,16 +29147,16 @@
         <v>58</v>
       </c>
       <c r="AS35" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="AT35" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="AU35" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="AV35" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="AW35">
         <v>9.1600000000000001E-2</v>
@@ -29442,7 +29168,7 @@
         <v>0</v>
       </c>
       <c r="AZ35" t="s">
-        <v>244</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.4">
@@ -29579,16 +29305,16 @@
         <v>60</v>
       </c>
       <c r="AS36" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="AT36" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="AU36" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AV36" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AW36">
         <v>6.0999999999999999E-2</v>
@@ -29600,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="AZ36" t="s">
-        <v>249</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.4">
@@ -29737,16 +29463,16 @@
         <v>60</v>
       </c>
       <c r="AS37" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="AT37" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="AU37" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AV37" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="AW37">
         <v>9.1600000000000001E-2</v>
@@ -29758,7 +29484,7 @@
         <v>0</v>
       </c>
       <c r="AZ37" t="s">
-        <v>254</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.4">
@@ -29895,16 +29621,16 @@
         <v>61</v>
       </c>
       <c r="AS38" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AT38" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AU38" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AV38" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AW38">
         <v>2.6700000000000002E-2</v>
@@ -29916,7 +29642,7 @@
         <v>0</v>
       </c>
       <c r="AZ38" t="s">
-        <v>259</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.4">
@@ -30053,16 +29779,16 @@
         <v>61</v>
       </c>
       <c r="AS39" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AT39" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AU39" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AV39" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AW39">
         <v>3.8100000000000002E-2</v>
@@ -30074,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="AZ39" t="s">
-        <v>264</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.4">
@@ -30211,16 +29937,16 @@
         <v>62</v>
       </c>
       <c r="AS40" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AT40" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AU40" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AV40" t="s">
-        <v>268</v>
+        <v>105</v>
       </c>
       <c r="AW40">
         <v>6.7000000000000002E-3</v>
@@ -30369,16 +30095,16 @@
         <v>62</v>
       </c>
       <c r="AS41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AT41" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AU41" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AV41" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AW41">
         <v>9.4999999999999998E-3</v>
@@ -30390,7 +30116,7 @@
         <v>0</v>
       </c>
       <c r="AZ41" t="s">
-        <v>273</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -30446,7 +30172,7 @@
       </c>
       <c r="D2" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS2, ",", ""), " ns", "")</f>
-        <v>7147.8</v>
+        <v>6523.1</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -30465,7 +30191,7 @@
       </c>
       <c r="D3" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS3, ",", ""), " ns", "")</f>
-        <v>7669.8</v>
+        <v>6672.3</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -30484,7 +30210,7 @@
       </c>
       <c r="D4" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS4, ",", ""), " ns", "")</f>
-        <v>7529.3</v>
+        <v>6497.5</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -30503,7 +30229,7 @@
       </c>
       <c r="D5" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS5, ",", ""), " ns", "")</f>
-        <v>7906.8</v>
+        <v>6466.9</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -30522,7 +30248,7 @@
       </c>
       <c r="D6" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS6, ",", ""), " ns", "")</f>
-        <v>4137.5</v>
+        <v>3184.7</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -30541,7 +30267,7 @@
       </c>
       <c r="D7" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS7, ",", ""), " ns", "")</f>
-        <v>4224.2</v>
+        <v>3323.3</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -30560,7 +30286,7 @@
       </c>
       <c r="D8" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS8, ",", ""), " ns", "")</f>
-        <v>1331.5</v>
+        <v>821.6</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -30579,7 +30305,7 @@
       </c>
       <c r="D9" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS9, ",", ""), " ns", "")</f>
-        <v>1250.0999999999999</v>
+        <v>789.8</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -30598,7 +30324,7 @@
       </c>
       <c r="D10" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS10, ",", ""), " ns", "")</f>
-        <v>43570.5</v>
+        <v>46273.1</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -30617,7 +30343,7 @@
       </c>
       <c r="D11" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS11, ",", ""), " ns", "") / 2</f>
-        <v>38477.199999999997</v>
+        <v>38263.85</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -30636,7 +30362,7 @@
       </c>
       <c r="D12" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS12, ",", ""), " ns", "")</f>
-        <v>43700.2</v>
+        <v>45231.9</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -30655,7 +30381,7 @@
       </c>
       <c r="D13" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS13, ",", ""), " ns", "")</f>
-        <v>78204.100000000006</v>
+        <v>81353.8</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -30674,7 +30400,7 @@
       </c>
       <c r="D14" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS14, ",", ""), " ns", "")</f>
-        <v>22587.4</v>
+        <v>22120.3</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -30693,7 +30419,7 @@
       </c>
       <c r="D15" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS15, ",", ""), " ns", "")</f>
-        <v>40695.9</v>
+        <v>40601.199999999997</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -30712,7 +30438,7 @@
       </c>
       <c r="D16" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS16, ",", ""), " ns", "")</f>
-        <v>4967.8</v>
+        <v>4951.7</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -30731,7 +30457,7 @@
       </c>
       <c r="D17" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS17, ",", ""), " ns", "")</f>
-        <v>11404.4</v>
+        <v>11805.7</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -30750,7 +30476,7 @@
       </c>
       <c r="D18" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS18, ",", ""), " ns", "")</f>
-        <v>6042.4</v>
+        <v>6179.4</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -30769,7 +30495,7 @@
       </c>
       <c r="D19" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS19, ",", ""), " ns", "")</f>
-        <v>8985.7000000000007</v>
+        <v>9168.7999999999993</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -30788,7 +30514,7 @@
       </c>
       <c r="D20" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS20, ",", ""), " ns", "")</f>
-        <v>6882.4</v>
+        <v>6862.8</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -30807,7 +30533,7 @@
       </c>
       <c r="D21" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS21, ",", ""), " ns", "")</f>
-        <v>7593.1</v>
+        <v>7675</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -30826,7 +30552,7 @@
       </c>
       <c r="D22" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS22, ",", ""), " ns", "")</f>
-        <v>2663.2</v>
+        <v>2741.5</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -30845,7 +30571,7 @@
       </c>
       <c r="D23" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS23, ",", ""), " ns", "")</f>
-        <v>3988.7</v>
+        <v>4072.6</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -30864,7 +30590,7 @@
       </c>
       <c r="D24" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS24, ",", ""), " ns", "")</f>
-        <v>683.8</v>
+        <v>732</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -30883,7 +30609,7 @@
       </c>
       <c r="D25" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS25, ",", ""), " ns", "")</f>
-        <v>899.1</v>
+        <v>903.8</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -30902,7 +30628,7 @@
       </c>
       <c r="D26" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS26, ",", ""), " ns", "")</f>
-        <v>11421.5</v>
+        <v>11780.9</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -30921,7 +30647,7 @@
       </c>
       <c r="D27" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS27, ",", ""), " ns", "")</f>
-        <v>20595.400000000001</v>
+        <v>20549.3</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -30940,7 +30666,7 @@
       </c>
       <c r="D28" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS28, ",", ""), " ns", "")</f>
-        <v>12096.3</v>
+        <v>12400.4</v>
       </c>
       <c r="E28" s="2"/>
     </row>
@@ -30959,7 +30685,7 @@
       </c>
       <c r="D29" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS29, ",", ""), " ns", "")</f>
-        <v>18028.8</v>
+        <v>18678.3</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -30978,7 +30704,7 @@
       </c>
       <c r="D30" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS30, ",", ""), " ns", "")</f>
-        <v>5365.7</v>
+        <v>5500.4</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -30997,7 +30723,7 @@
       </c>
       <c r="D31" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS31, ",", ""), " ns", "")</f>
-        <v>10100.700000000001</v>
+        <v>10256.200000000001</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -31016,7 +30742,7 @@
       </c>
       <c r="D32" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS32, ",", ""), " ns", "")</f>
-        <v>1337.8</v>
+        <v>1374.2</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -31035,7 +30761,7 @@
       </c>
       <c r="D33" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS33, ",", ""), " ns", "")</f>
-        <v>2825</v>
+        <v>2828.9</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -31054,7 +30780,7 @@
       </c>
       <c r="D34" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS34, ",", ""), " ns", "")</f>
-        <v>4552.3</v>
+        <v>4603</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -31073,7 +30799,7 @@
       </c>
       <c r="D35" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS35, ",", ""), " ns", "")</f>
-        <v>7862.6</v>
+        <v>7823.6</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -31092,7 +30818,7 @@
       </c>
       <c r="D36" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS36, ",", ""), " ns", "")</f>
-        <v>4911.1000000000004</v>
+        <v>4945.8999999999996</v>
       </c>
       <c r="E36" s="2"/>
     </row>
@@ -31111,7 +30837,7 @@
       </c>
       <c r="D37" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS37, ",", ""), " ns", "")</f>
-        <v>7705.9</v>
+        <v>7738.9</v>
       </c>
       <c r="E37" s="2"/>
     </row>
@@ -31130,7 +30856,7 @@
       </c>
       <c r="D38" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS38, ",", ""), " ns", "")</f>
-        <v>2081.4</v>
+        <v>2078.1999999999998</v>
       </c>
       <c r="E38" s="2"/>
     </row>
@@ -31149,7 +30875,7 @@
       </c>
       <c r="D39" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS39, ",", ""), " ns", "")</f>
-        <v>3449.4</v>
+        <v>3467.3</v>
       </c>
       <c r="E39" s="2"/>
     </row>
@@ -31168,7 +30894,7 @@
       </c>
       <c r="D40" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS40, ",", ""), " ns", "")</f>
-        <v>530.6</v>
+        <v>532.29999999999995</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -31187,7 +30913,7 @@
       </c>
       <c r="D41" s="2">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Stati'!AS41, ",", ""), " ns", "")</f>
-        <v>800.6</v>
+        <v>796.5</v>
       </c>
       <c r="E41" s="2"/>
     </row>
@@ -31239,7 +30965,7 @@
       </c>
       <c r="D2">
         <f>Result!D2</f>
-        <v>7147.8</v>
+        <v>6523.1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -31257,7 +30983,7 @@
       </c>
       <c r="D3">
         <f>Result!D4</f>
-        <v>7529.3</v>
+        <v>6497.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -31275,7 +31001,7 @@
       </c>
       <c r="D4">
         <f>Result!D6</f>
-        <v>4137.5</v>
+        <v>3184.7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -31293,7 +31019,7 @@
       </c>
       <c r="D5">
         <f>Result!D8</f>
-        <v>1331.5</v>
+        <v>821.6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -31311,7 +31037,7 @@
       </c>
       <c r="D6">
         <f>Result!D10</f>
-        <v>43570.5</v>
+        <v>46273.1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -31329,7 +31055,7 @@
       </c>
       <c r="D7">
         <f>Result!D12</f>
-        <v>43700.2</v>
+        <v>45231.9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -31347,7 +31073,7 @@
       </c>
       <c r="D8">
         <f>Result!D14</f>
-        <v>22587.4</v>
+        <v>22120.3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -31365,7 +31091,7 @@
       </c>
       <c r="D9">
         <f>Result!D16</f>
-        <v>4967.8</v>
+        <v>4951.7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -31383,7 +31109,7 @@
       </c>
       <c r="D10">
         <f>Result!D18</f>
-        <v>6042.4</v>
+        <v>6179.4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -31401,7 +31127,7 @@
       </c>
       <c r="D11">
         <f>Result!D20</f>
-        <v>6882.4</v>
+        <v>6862.8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -31419,7 +31145,7 @@
       </c>
       <c r="D12">
         <f>Result!D22</f>
-        <v>2663.2</v>
+        <v>2741.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -31437,7 +31163,7 @@
       </c>
       <c r="D13">
         <f>Result!D24</f>
-        <v>683.8</v>
+        <v>732</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -31455,7 +31181,7 @@
       </c>
       <c r="D14">
         <f>Result!D26</f>
-        <v>11421.5</v>
+        <v>11780.9</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -31473,7 +31199,7 @@
       </c>
       <c r="D15">
         <f>Result!D28</f>
-        <v>12096.3</v>
+        <v>12400.4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -31491,7 +31217,7 @@
       </c>
       <c r="D16">
         <f>Result!D30</f>
-        <v>5365.7</v>
+        <v>5500.4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -31509,7 +31235,7 @@
       </c>
       <c r="D17">
         <f>Result!D32</f>
-        <v>1337.8</v>
+        <v>1374.2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -31527,7 +31253,7 @@
       </c>
       <c r="D18">
         <f>Result!D34</f>
-        <v>4552.3</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -31545,7 +31271,7 @@
       </c>
       <c r="D19">
         <f>Result!D36</f>
-        <v>4911.1000000000004</v>
+        <v>4945.8999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -31563,7 +31289,7 @@
       </c>
       <c r="D20">
         <f>Result!D38</f>
-        <v>2081.4</v>
+        <v>2078.1999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -31581,7 +31307,7 @@
       </c>
       <c r="D21">
         <f>Result!D40</f>
-        <v>530.6</v>
+        <v>532.29999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -31631,7 +31357,7 @@
       </c>
       <c r="D2">
         <f>Result!D3</f>
-        <v>7669.8</v>
+        <v>6672.3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -31649,7 +31375,7 @@
       </c>
       <c r="D3">
         <f>Result!D5</f>
-        <v>7906.8</v>
+        <v>6466.9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -31667,7 +31393,7 @@
       </c>
       <c r="D4">
         <f>Result!D7</f>
-        <v>4224.2</v>
+        <v>3323.3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -31685,7 +31411,7 @@
       </c>
       <c r="D5">
         <f>Result!D9</f>
-        <v>1250.0999999999999</v>
+        <v>789.8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -31703,7 +31429,7 @@
       </c>
       <c r="D6">
         <f>Result!D11</f>
-        <v>38477.199999999997</v>
+        <v>38263.85</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -31721,7 +31447,7 @@
       </c>
       <c r="D7">
         <f>Result!D13</f>
-        <v>78204.100000000006</v>
+        <v>81353.8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -31739,7 +31465,7 @@
       </c>
       <c r="D8">
         <f>Result!D15</f>
-        <v>40695.9</v>
+        <v>40601.199999999997</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -31757,7 +31483,7 @@
       </c>
       <c r="D9">
         <f>Result!D17</f>
-        <v>11404.4</v>
+        <v>11805.7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -31775,7 +31501,7 @@
       </c>
       <c r="D10">
         <f>Result!D19</f>
-        <v>8985.7000000000007</v>
+        <v>9168.7999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -31793,7 +31519,7 @@
       </c>
       <c r="D11">
         <f>Result!D21</f>
-        <v>7593.1</v>
+        <v>7675</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -31811,7 +31537,7 @@
       </c>
       <c r="D12">
         <f>Result!D23</f>
-        <v>3988.7</v>
+        <v>4072.6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -31829,7 +31555,7 @@
       </c>
       <c r="D13">
         <f>Result!D25</f>
-        <v>899.1</v>
+        <v>903.8</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -31847,7 +31573,7 @@
       </c>
       <c r="D14">
         <f>Result!D27</f>
-        <v>20595.400000000001</v>
+        <v>20549.3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -31865,7 +31591,7 @@
       </c>
       <c r="D15">
         <f>Result!D29</f>
-        <v>18028.8</v>
+        <v>18678.3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -31883,7 +31609,7 @@
       </c>
       <c r="D16">
         <f>Result!D31</f>
-        <v>10100.700000000001</v>
+        <v>10256.200000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -31901,7 +31627,7 @@
       </c>
       <c r="D17">
         <f>Result!D33</f>
-        <v>2825</v>
+        <v>2828.9</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -31919,7 +31645,7 @@
       </c>
       <c r="D18">
         <f>Result!D35</f>
-        <v>7862.6</v>
+        <v>7823.6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -31937,7 +31663,7 @@
       </c>
       <c r="D19">
         <f>Result!D37</f>
-        <v>7705.9</v>
+        <v>7738.9</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -31955,7 +31681,7 @@
       </c>
       <c r="D20">
         <f>Result!D39</f>
-        <v>3449.4</v>
+        <v>3467.3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -31973,7 +31699,7 @@
       </c>
       <c r="D21">
         <f>Result!D41</f>
-        <v>800.6</v>
+        <v>796.5</v>
       </c>
     </row>
   </sheetData>
@@ -31986,8 +31712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4C9662-66B1-4C0A-9010-C264A299CE8B}">
   <dimension ref="A3:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -32037,22 +31763,22 @@
         <v>62</v>
       </c>
       <c r="B5" s="5">
-        <v>1331.5</v>
+        <v>821.6</v>
       </c>
       <c r="C5" s="5">
-        <v>530.6</v>
+        <v>532.29999999999995</v>
       </c>
       <c r="D5" s="5">
-        <v>683.8</v>
+        <v>732</v>
       </c>
       <c r="E5" s="5">
-        <v>1337.8</v>
+        <v>1374.2</v>
       </c>
       <c r="F5" s="5">
-        <v>4967.8</v>
+        <v>4951.7</v>
       </c>
       <c r="G5" s="5">
-        <v>8851.5</v>
+        <v>8411.7999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -32060,22 +31786,22 @@
         <v>61</v>
       </c>
       <c r="B6" s="5">
-        <v>4137.5</v>
+        <v>3184.7</v>
       </c>
       <c r="C6" s="5">
-        <v>2081.4</v>
+        <v>2078.1999999999998</v>
       </c>
       <c r="D6" s="5">
-        <v>2663.2</v>
+        <v>2741.5</v>
       </c>
       <c r="E6" s="5">
-        <v>5365.7</v>
+        <v>5500.4</v>
       </c>
       <c r="F6" s="5">
-        <v>22587.4</v>
+        <v>22120.3</v>
       </c>
       <c r="G6" s="5">
-        <v>36835.199999999997</v>
+        <v>35625.1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -32083,22 +31809,22 @@
         <v>60</v>
       </c>
       <c r="B7" s="5">
-        <v>7529.3</v>
+        <v>6497.5</v>
       </c>
       <c r="C7" s="5">
-        <v>4911.1000000000004</v>
+        <v>4945.8999999999996</v>
       </c>
       <c r="D7" s="5">
-        <v>6882.4</v>
+        <v>6862.8</v>
       </c>
       <c r="E7" s="5">
-        <v>12096.3</v>
+        <v>12400.4</v>
       </c>
       <c r="F7" s="5">
-        <v>43700.2</v>
+        <v>45231.9</v>
       </c>
       <c r="G7" s="5">
-        <v>75119.3</v>
+        <v>75938.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -32106,22 +31832,22 @@
         <v>71</v>
       </c>
       <c r="B8" s="5">
-        <v>12998.3</v>
+        <v>10503.8</v>
       </c>
       <c r="C8" s="5">
-        <v>7523.1</v>
+        <v>7556.4</v>
       </c>
       <c r="D8" s="5">
-        <v>10229.4</v>
+        <v>10336.299999999999</v>
       </c>
       <c r="E8" s="5">
-        <v>18799.8</v>
+        <v>19275</v>
       </c>
       <c r="F8" s="5">
-        <v>71255.399999999994</v>
+        <v>72303.899999999994</v>
       </c>
       <c r="G8" s="5">
-        <v>120806</v>
+        <v>119975.4</v>
       </c>
     </row>
   </sheetData>
@@ -32135,8 +31861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C511F4FF-F36F-4B45-B27B-C0C2C8527D33}">
   <dimension ref="A3:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -32186,22 +31912,22 @@
         <v>62</v>
       </c>
       <c r="B5" s="5">
-        <v>1250.0999999999999</v>
+        <v>789.8</v>
       </c>
       <c r="C5" s="5">
-        <v>800.6</v>
+        <v>796.5</v>
       </c>
       <c r="D5" s="5">
-        <v>899.1</v>
+        <v>903.8</v>
       </c>
       <c r="E5" s="5">
-        <v>2825</v>
+        <v>2828.9</v>
       </c>
       <c r="F5" s="5">
-        <v>11404.4</v>
+        <v>11805.7</v>
       </c>
       <c r="G5" s="5">
-        <v>17179.199999999997</v>
+        <v>17124.7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -32209,22 +31935,22 @@
         <v>61</v>
       </c>
       <c r="B6" s="5">
-        <v>4224.2</v>
+        <v>3323.3</v>
       </c>
       <c r="C6" s="5">
-        <v>3449.4</v>
+        <v>3467.3</v>
       </c>
       <c r="D6" s="5">
-        <v>3988.7</v>
+        <v>4072.6</v>
       </c>
       <c r="E6" s="5">
-        <v>10100.700000000001</v>
+        <v>10256.200000000001</v>
       </c>
       <c r="F6" s="5">
-        <v>40695.9</v>
+        <v>40601.199999999997</v>
       </c>
       <c r="G6" s="5">
-        <v>62458.9</v>
+        <v>61720.6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -32232,22 +31958,22 @@
         <v>60</v>
       </c>
       <c r="B7" s="5">
-        <v>7906.8</v>
+        <v>6466.9</v>
       </c>
       <c r="C7" s="5">
-        <v>7705.9</v>
+        <v>7738.9</v>
       </c>
       <c r="D7" s="5">
-        <v>7593.1</v>
+        <v>7675</v>
       </c>
       <c r="E7" s="5">
-        <v>18028.8</v>
+        <v>18678.3</v>
       </c>
       <c r="F7" s="5">
-        <v>78204.100000000006</v>
+        <v>81353.8</v>
       </c>
       <c r="G7" s="5">
-        <v>119438.70000000001</v>
+        <v>121912.9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -32255,22 +31981,22 @@
         <v>71</v>
       </c>
       <c r="B8" s="5">
-        <v>13381.099999999999</v>
+        <v>10580</v>
       </c>
       <c r="C8" s="5">
-        <v>11955.9</v>
+        <v>12002.7</v>
       </c>
       <c r="D8" s="5">
-        <v>12480.900000000001</v>
+        <v>12651.4</v>
       </c>
       <c r="E8" s="5">
-        <v>30954.5</v>
+        <v>31763.4</v>
       </c>
       <c r="F8" s="5">
-        <v>130304.40000000001</v>
+        <v>133760.70000000001</v>
       </c>
       <c r="G8" s="5">
-        <v>199076.80000000002</v>
+        <v>200758.2</v>
       </c>
     </row>
   </sheetData>
